--- a/src/Plugins/Nop.Plugin.Misc.Kozijnen/Imports/Categories/Vouwwanden categories.xlsx
+++ b/src/Plugins/Nop.Plugin.Misc.Kozijnen/Imports/Categories/Vouwwanden categories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Azure\nopCommerce\src\Plugins\Nop.Plugin.Misc.Kozijnen\Imports\Categories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C035B8D2-C0F0-44A2-8761-ADBCAD452788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AFFDA3-2611-4697-9A04-2BB907130E77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32580" yWindow="1095" windowWidth="14880" windowHeight="15510" xr2:uid="{E2F54893-0E41-4E0C-9E1A-AF108B252F16}"/>
+    <workbookView xWindow="1950" yWindow="690" windowWidth="14595" windowHeight="15510" xr2:uid="{E2F54893-0E41-4E0C-9E1A-AF108B252F16}"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="1" r:id="rId1"/>
@@ -547,7 +547,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +586,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -606,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -644,7 +644,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -664,7 +664,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>7</v>
       </c>
       <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
         <v>1</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
